--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/src/test/resources/xlsx/test-pie-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/src/test/resources/xlsx/test-pie-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-format\nop-ooxml\nop-ooxml-xlsx\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489FA8EE-7A17-4A8D-A83F-AE2B89CABD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF9783-2759-4017-9F63-A694E1E03FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{139D066A-C1B5-4F3F-A451-EC1BCCC302E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{AF3E9444-753C-4BD0-91DC-154593076937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>产品A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -140,60 +157,13 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -201,23 +171,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -226,23 +186,13 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -251,141 +201,37 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="25400">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>产品A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>产品B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>产品C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:f>Sheet1!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -393,862 +239,14 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA90-4378-AB31-84898609267C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CA90-4378-AB31-84898609267C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$4:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CA90-4378-AB31-84898609267C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000037-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CA90-4378-AB31-84898609267C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000039-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003B-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003D-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000041-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000045-F295-4BAD-B82F-99E9821EFCB7}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$4:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CA90-4378-AB31-84898609267C}"/>
+              <c16:uniqueId val="{00000000-AEE1-4BF4-8A21-BFFBEED72E25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1261,7 +259,8 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1386,7 +385,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1908,26 +907,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3" descr="dataCellRefExpr=Sheet1!C1:D1&#10;titleCellRefExpr=Sheet2!C2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13EFD7D-C8B6-0EF1-42D4-F0B91E557AEC}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE5E5D5-5869-6378-0F46-294716ED001F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,28 +1240,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33BD251-4926-4DE0-B7AD-D721B095D360}">
-  <dimension ref="C4:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CF2E09-3478-4D05-BF02-B8A62DD3CB24}">
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
